--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3374353333333334</v>
+        <v>0.596952</v>
       </c>
       <c r="H2">
-        <v>1.012306</v>
+        <v>1.790856</v>
       </c>
       <c r="I2">
-        <v>0.002453434448260963</v>
+        <v>0.006783447043173578</v>
       </c>
       <c r="J2">
-        <v>0.002456996523359604</v>
+        <v>0.006790426883437656</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N2">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O2">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P2">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q2">
-        <v>263.2449970173747</v>
+        <v>332.348574926904</v>
       </c>
       <c r="R2">
-        <v>2369.204973156372</v>
+        <v>2991.137174342136</v>
       </c>
       <c r="S2">
-        <v>0.001873631826513215</v>
+        <v>0.004908409929250893</v>
       </c>
       <c r="T2">
-        <v>0.001981697257611163</v>
+        <v>0.005218693335264942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3374353333333334</v>
+        <v>0.596952</v>
       </c>
       <c r="H3">
-        <v>1.012306</v>
+        <v>1.790856</v>
       </c>
       <c r="I3">
-        <v>0.002453434448260963</v>
+        <v>0.006783447043173578</v>
       </c>
       <c r="J3">
-        <v>0.002456996523359604</v>
+        <v>0.006790426883437656</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P3">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q3">
-        <v>25.60454281546867</v>
+        <v>45.296628814152</v>
       </c>
       <c r="R3">
-        <v>230.440885339218</v>
+        <v>407.669659327368</v>
       </c>
       <c r="S3">
-        <v>0.000182238929005044</v>
+        <v>0.0006689796178060205</v>
       </c>
       <c r="T3">
-        <v>0.0001927499206241435</v>
+        <v>0.0007112689288779888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3374353333333334</v>
+        <v>0.596952</v>
       </c>
       <c r="H4">
-        <v>1.012306</v>
+        <v>1.790856</v>
       </c>
       <c r="I4">
-        <v>0.002453434448260963</v>
+        <v>0.006783447043173578</v>
       </c>
       <c r="J4">
-        <v>0.002456996523359604</v>
+        <v>0.006790426883437656</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N4">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O4">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P4">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q4">
-        <v>0.502044049946</v>
+        <v>0.8372176186079999</v>
       </c>
       <c r="R4">
-        <v>4.518396449514</v>
+        <v>7.534958567472</v>
       </c>
       <c r="S4">
-        <v>3.573270986906282E-06</v>
+        <v>1.236475069292266E-05</v>
       </c>
       <c r="T4">
-        <v>3.779366477047708E-06</v>
+        <v>1.314638405582724E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3374353333333334</v>
+        <v>0.596952</v>
       </c>
       <c r="H5">
-        <v>1.012306</v>
+        <v>1.790856</v>
       </c>
       <c r="I5">
-        <v>0.002453434448260963</v>
+        <v>0.006783447043173578</v>
       </c>
       <c r="J5">
-        <v>0.002456996523359604</v>
+        <v>0.006790426883437656</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N5">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O5">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P5">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q5">
-        <v>54.972925047512</v>
+        <v>80.59242764779201</v>
       </c>
       <c r="R5">
-        <v>329.837550285072</v>
+        <v>483.5545658867521</v>
       </c>
       <c r="S5">
-        <v>0.0003912667785999589</v>
+        <v>0.00119025836706494</v>
       </c>
       <c r="T5">
-        <v>0.0002758892439712812</v>
+        <v>0.0008436667538609771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.596952</v>
+      </c>
+      <c r="H6">
+        <v>1.790856</v>
+      </c>
+      <c r="I6">
+        <v>0.006783447043173578</v>
+      </c>
+      <c r="J6">
+        <v>0.006790426883437656</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.3374353333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.012306</v>
-      </c>
-      <c r="I6">
-        <v>0.002453434448260963</v>
-      </c>
-      <c r="J6">
-        <v>0.002456996523359604</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N6">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O6">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P6">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q6">
-        <v>0.3826714642062222</v>
+        <v>0.232541855664</v>
       </c>
       <c r="R6">
-        <v>3.444043177856</v>
+        <v>2.092876700976</v>
       </c>
       <c r="S6">
-        <v>2.723643155838848E-06</v>
+        <v>3.434378358801885E-06</v>
       </c>
       <c r="T6">
-        <v>2.880734675969803E-06</v>
+        <v>3.651481377920058E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>106.28228</v>
       </c>
       <c r="I7">
-        <v>0.2575867445137312</v>
+        <v>0.4025785535005307</v>
       </c>
       <c r="J7">
-        <v>0.2579607277391737</v>
+        <v>0.4029927874407815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N7">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O7">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P7">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q7">
-        <v>27638.16324471037</v>
+        <v>19723.9556379643</v>
       </c>
       <c r="R7">
-        <v>248743.4692023933</v>
+        <v>177515.6007416787</v>
       </c>
       <c r="S7">
-        <v>0.196713110860144</v>
+        <v>0.2913003605289446</v>
       </c>
       <c r="T7">
-        <v>0.2080589296207487</v>
+        <v>0.3097148102877967</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>106.28228</v>
       </c>
       <c r="I8">
-        <v>0.2575867445137312</v>
+        <v>0.4025785535005307</v>
       </c>
       <c r="J8">
-        <v>0.2579607277391737</v>
+        <v>0.4029927874407815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P8">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q8">
         <v>2688.227856780094</v>
@@ -948,10 +948,10 @@
         <v>24194.05071102084</v>
       </c>
       <c r="S8">
-        <v>0.01913331431347262</v>
+        <v>0.03970206373597456</v>
       </c>
       <c r="T8">
-        <v>0.02023686615880276</v>
+        <v>0.04221181572070031</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>106.28228</v>
       </c>
       <c r="I9">
-        <v>0.2575867445137312</v>
+        <v>0.4025785535005307</v>
       </c>
       <c r="J9">
-        <v>0.2579607277391737</v>
+        <v>0.4029927874407815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N9">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O9">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P9">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q9">
-        <v>52.70974022548</v>
+        <v>49.68651715259556</v>
       </c>
       <c r="R9">
-        <v>474.38766202932</v>
+        <v>447.17865437336</v>
       </c>
       <c r="S9">
-        <v>0.0003751586847714523</v>
+        <v>0.0007338132687806279</v>
       </c>
       <c r="T9">
-        <v>0.000396796705873716</v>
+        <v>0.0007802010162787885</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>106.28228</v>
       </c>
       <c r="I10">
-        <v>0.2575867445137312</v>
+        <v>0.4025785535005307</v>
       </c>
       <c r="J10">
-        <v>0.2579607277391737</v>
+        <v>0.4029927874407815</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N10">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O10">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P10">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q10">
-        <v>5771.62222916656</v>
+        <v>4782.93450793496</v>
       </c>
       <c r="R10">
-        <v>34629.73337499936</v>
+        <v>28697.60704760976</v>
       </c>
       <c r="S10">
-        <v>0.04107920462573455</v>
+        <v>0.07063849524514462</v>
       </c>
       <c r="T10">
-        <v>0.02896568614306742</v>
+        <v>0.05006925523913896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>106.28228</v>
       </c>
       <c r="I11">
-        <v>0.2575867445137312</v>
+        <v>0.4025785535005307</v>
       </c>
       <c r="J11">
-        <v>0.2579607277391737</v>
+        <v>0.4029927874407815</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N11">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O11">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P11">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q11">
-        <v>40.17678024903111</v>
+        <v>13.80070682143111</v>
       </c>
       <c r="R11">
-        <v>361.59102224128</v>
+        <v>124.20636139288</v>
       </c>
       <c r="S11">
-        <v>0.0002859560296085848</v>
+        <v>0.0002038207216862341</v>
       </c>
       <c r="T11">
-        <v>0.0003024491106810904</v>
+        <v>0.0002167051768667528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.68558766666666</v>
+        <v>29.40128133333333</v>
       </c>
       <c r="H12">
-        <v>83.05676299999999</v>
+        <v>88.203844</v>
       </c>
       <c r="I12">
-        <v>0.2012971606463327</v>
+        <v>0.3341006227068751</v>
       </c>
       <c r="J12">
-        <v>0.2015894185478527</v>
+        <v>0.3344443961547669</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N12">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O12">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P12">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q12">
-        <v>21598.48635512166</v>
+        <v>16368.94415657928</v>
       </c>
       <c r="R12">
-        <v>194386.377196095</v>
+        <v>147320.4974092136</v>
       </c>
       <c r="S12">
-        <v>0.1537260418924368</v>
+        <v>0.2417506620787472</v>
       </c>
       <c r="T12">
-        <v>0.1625924962048632</v>
+        <v>0.2570328450905872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.68558766666666</v>
+        <v>29.40128133333333</v>
       </c>
       <c r="H13">
-        <v>83.05676299999999</v>
+        <v>88.203844</v>
       </c>
       <c r="I13">
-        <v>0.2012971606463327</v>
+        <v>0.3341006227068751</v>
       </c>
       <c r="J13">
-        <v>0.2015894185478527</v>
+        <v>0.3344443961547669</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P13">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q13">
-        <v>2100.778266994104</v>
+        <v>2230.964846782415</v>
       </c>
       <c r="R13">
-        <v>18907.00440294694</v>
+        <v>20078.68362104174</v>
       </c>
       <c r="S13">
-        <v>0.01495217408149884</v>
+        <v>0.03294880986977281</v>
       </c>
       <c r="T13">
-        <v>0.01581457037254377</v>
+        <v>0.03503165728835887</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.68558766666666</v>
+        <v>29.40128133333333</v>
       </c>
       <c r="H14">
-        <v>83.05676299999999</v>
+        <v>88.203844</v>
       </c>
       <c r="I14">
-        <v>0.2012971606463327</v>
+        <v>0.3341006227068751</v>
       </c>
       <c r="J14">
-        <v>0.2015894185478527</v>
+        <v>0.3344443961547669</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N14">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O14">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P14">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q14">
-        <v>41.19125409898299</v>
+        <v>41.23492465376977</v>
       </c>
       <c r="R14">
-        <v>370.721286890847</v>
+        <v>371.114321883928</v>
       </c>
       <c r="S14">
-        <v>0.0002931764915887598</v>
+        <v>0.0006089928733619243</v>
       </c>
       <c r="T14">
-        <v>0.0003100860271245022</v>
+        <v>0.0006474901434980106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.68558766666666</v>
+        <v>29.40128133333333</v>
       </c>
       <c r="H15">
-        <v>83.05676299999999</v>
+        <v>88.203844</v>
       </c>
       <c r="I15">
-        <v>0.2012971606463327</v>
+        <v>0.3341006227068751</v>
       </c>
       <c r="J15">
-        <v>0.2015894185478527</v>
+        <v>0.3344443961547669</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N15">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O15">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P15">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q15">
-        <v>4510.368610961475</v>
+        <v>3969.365440787608</v>
       </c>
       <c r="R15">
-        <v>27062.21166576885</v>
+        <v>23816.19264472565</v>
       </c>
       <c r="S15">
-        <v>0.03210230118160936</v>
+        <v>0.05862300672320426</v>
       </c>
       <c r="T15">
-        <v>0.02263591004179751</v>
+        <v>0.04155255963937917</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.68558766666666</v>
+        <v>29.40128133333333</v>
       </c>
       <c r="H16">
-        <v>83.05676299999999</v>
+        <v>88.203844</v>
       </c>
       <c r="I16">
-        <v>0.2012971606463327</v>
+        <v>0.3341006227068751</v>
       </c>
       <c r="J16">
-        <v>0.2015894185478527</v>
+        <v>0.3344443961547669</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N16">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O16">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P16">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q16">
-        <v>31.39708063514311</v>
+        <v>11.45322994169156</v>
       </c>
       <c r="R16">
-        <v>282.573725716288</v>
+        <v>103.079069475224</v>
       </c>
       <c r="S16">
-        <v>0.0002234669991989371</v>
+        <v>0.0001691511617889643</v>
       </c>
       <c r="T16">
-        <v>0.0002363559015237544</v>
+        <v>0.0001798439929435788</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.5981854999999999</v>
+        <v>0.271368</v>
       </c>
       <c r="H17">
-        <v>1.196371</v>
+        <v>0.542736</v>
       </c>
       <c r="I17">
-        <v>0.004349304198978001</v>
+        <v>0.00308368253596927</v>
       </c>
       <c r="J17">
-        <v>0.002903745890717088</v>
+        <v>0.002057903664509832</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N17">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O17">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P17">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q17">
-        <v>466.6652380703169</v>
+        <v>151.082110589736</v>
       </c>
       <c r="R17">
-        <v>2799.991428421902</v>
+        <v>906.492663538416</v>
       </c>
       <c r="S17">
-        <v>0.003321464234012405</v>
+        <v>0.002231310701163505</v>
       </c>
       <c r="T17">
-        <v>0.002342024180223691</v>
+        <v>0.00158157481450678</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.5981854999999999</v>
+        <v>0.271368</v>
       </c>
       <c r="H18">
-        <v>1.196371</v>
+        <v>0.542736</v>
       </c>
       <c r="I18">
-        <v>0.004349304198978001</v>
+        <v>0.00308368253596927</v>
       </c>
       <c r="J18">
-        <v>0.002903745890717088</v>
+        <v>0.002057903664509832</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P18">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q18">
-        <v>45.39022661036049</v>
+        <v>20.591363406168</v>
       </c>
       <c r="R18">
-        <v>272.341359662163</v>
+        <v>123.548180437008</v>
       </c>
       <c r="S18">
-        <v>0.000323062448112567</v>
+        <v>0.0003041109853468691</v>
       </c>
       <c r="T18">
-        <v>0.000227797143637425</v>
+        <v>0.0002155568361629992</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.5981854999999999</v>
+        <v>0.271368</v>
       </c>
       <c r="H19">
-        <v>1.196371</v>
+        <v>0.542736</v>
       </c>
       <c r="I19">
-        <v>0.004349304198978001</v>
+        <v>0.00308368253596927</v>
       </c>
       <c r="J19">
-        <v>0.002903745890717088</v>
+        <v>0.002057903664509832</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N19">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O19">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P19">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q19">
-        <v>0.8899941451664998</v>
+        <v>0.380590182672</v>
       </c>
       <c r="R19">
-        <v>5.339964870998999</v>
+        <v>2.283541096032</v>
       </c>
       <c r="S19">
-        <v>6.334484509440902E-06</v>
+        <v>5.62088353173628E-06</v>
       </c>
       <c r="T19">
-        <v>4.466558976744228E-06</v>
+        <v>3.984137137169852E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.5981854999999999</v>
+        <v>0.271368</v>
       </c>
       <c r="H20">
-        <v>1.196371</v>
+        <v>0.542736</v>
       </c>
       <c r="I20">
-        <v>0.004349304198978001</v>
+        <v>0.00308368253596927</v>
       </c>
       <c r="J20">
-        <v>0.002903745890717088</v>
+        <v>0.002057903664509832</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N20">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O20">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P20">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q20">
-        <v>97.45276622683798</v>
+        <v>36.636456374928</v>
       </c>
       <c r="R20">
-        <v>389.8110649073519</v>
+        <v>146.545825499712</v>
       </c>
       <c r="S20">
-        <v>0.0006936147180502901</v>
+        <v>0.000541078734225999</v>
       </c>
       <c r="T20">
-        <v>0.0003260534766159299</v>
+        <v>0.0002556812604271316</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.271368</v>
+      </c>
+      <c r="H21">
+        <v>0.542736</v>
+      </c>
+      <c r="I21">
+        <v>0.00308368253596927</v>
+      </c>
+      <c r="J21">
+        <v>0.002057903664509832</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5981854999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.196371</v>
-      </c>
-      <c r="I21">
-        <v>0.004349304198978001</v>
-      </c>
-      <c r="J21">
-        <v>0.002903745890717088</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N21">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O21">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P21">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q21">
-        <v>0.6783774505493332</v>
+        <v>0.105711042576</v>
       </c>
       <c r="R21">
-        <v>4.070264703295999</v>
+        <v>0.634266255456</v>
       </c>
       <c r="S21">
-        <v>4.828314293297794E-06</v>
+        <v>1.561231701160814E-06</v>
       </c>
       <c r="T21">
-        <v>3.404531263298517E-06</v>
+        <v>1.106616275751272E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.48727233333334</v>
+        <v>22.30424866666667</v>
       </c>
       <c r="H22">
-        <v>220.461817</v>
+        <v>66.912746</v>
       </c>
       <c r="I22">
-        <v>0.534313356192697</v>
+        <v>0.2534536942134514</v>
       </c>
       <c r="J22">
-        <v>0.535089111298897</v>
+        <v>0.2537144858565041</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N22">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O22">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P22">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q22">
-        <v>57329.96777516877</v>
+        <v>12417.72413725386</v>
       </c>
       <c r="R22">
-        <v>515969.7099765189</v>
+        <v>111759.5172352847</v>
       </c>
       <c r="S22">
-        <v>0.4080429009233691</v>
+        <v>0.1833956425641386</v>
       </c>
       <c r="T22">
-        <v>0.431577584403208</v>
+        <v>0.1949889335571793</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.48727233333334</v>
+        <v>22.30424866666667</v>
       </c>
       <c r="H23">
-        <v>220.461817</v>
+        <v>66.912746</v>
       </c>
       <c r="I23">
-        <v>0.534313356192697</v>
+        <v>0.2534536942134514</v>
       </c>
       <c r="J23">
-        <v>0.535089111298897</v>
+        <v>0.2537144858565041</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P23">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q23">
-        <v>5576.203275049756</v>
+        <v>1692.443065493615</v>
       </c>
       <c r="R23">
-        <v>50185.8294754478</v>
+        <v>15231.98758944254</v>
       </c>
       <c r="S23">
-        <v>0.03968832093910933</v>
+        <v>0.02499545649981424</v>
       </c>
       <c r="T23">
-        <v>0.04197742355315927</v>
+        <v>0.02657553548454199</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.48727233333334</v>
+        <v>22.30424866666667</v>
       </c>
       <c r="H24">
-        <v>220.461817</v>
+        <v>66.912746</v>
       </c>
       <c r="I24">
-        <v>0.534313356192697</v>
+        <v>0.2534536942134514</v>
       </c>
       <c r="J24">
-        <v>0.535089111298897</v>
+        <v>0.2537144858565041</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N24">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O24">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P24">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q24">
-        <v>109.336053984797</v>
+        <v>31.28142623451689</v>
       </c>
       <c r="R24">
-        <v>984.0244858631729</v>
+        <v>281.5328361106519</v>
       </c>
       <c r="S24">
-        <v>0.000778193366834477</v>
+        <v>0.0004619910380671913</v>
       </c>
       <c r="T24">
-        <v>0.0008230772124622657</v>
+        <v>0.0004911956389268696</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.48727233333334</v>
+        <v>22.30424866666667</v>
       </c>
       <c r="H25">
-        <v>220.461817</v>
+        <v>66.912746</v>
       </c>
       <c r="I25">
-        <v>0.534313356192697</v>
+        <v>0.2534536942134514</v>
       </c>
       <c r="J25">
-        <v>0.535089111298897</v>
+        <v>0.2537144858565041</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N25">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O25">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P25">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q25">
-        <v>11972.10225147268</v>
+        <v>3011.219573611772</v>
       </c>
       <c r="R25">
-        <v>71832.61350883609</v>
+        <v>18067.31744167064</v>
       </c>
       <c r="S25">
-        <v>0.08521078107003578</v>
+        <v>0.04447228352798387</v>
       </c>
       <c r="T25">
-        <v>0.06008365456360521</v>
+        <v>0.0315223888518921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>73.48727233333334</v>
+        <v>22.30424866666667</v>
       </c>
       <c r="H26">
-        <v>220.461817</v>
+        <v>66.912746</v>
       </c>
       <c r="I26">
-        <v>0.534313356192697</v>
+        <v>0.2534536942134514</v>
       </c>
       <c r="J26">
-        <v>0.535089111298897</v>
+        <v>0.2537144858565041</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N26">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O26">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P26">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q26">
-        <v>83.33887807931022</v>
+        <v>8.688590329101778</v>
       </c>
       <c r="R26">
-        <v>750.049902713792</v>
+        <v>78.197312961916</v>
       </c>
       <c r="S26">
-        <v>0.0005931598933483023</v>
+        <v>0.0001283205834474728</v>
       </c>
       <c r="T26">
-        <v>0.0006273715664623237</v>
+        <v>0.0001364323239637887</v>
       </c>
     </row>
   </sheetData>
